--- a/data/hotels_by_city/Houston/Houston_shard_494.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_494.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d244335-Reviews-Motel_6_Houston_Baytown_East-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,471 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r584236738-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>244335</t>
+  </si>
+  <si>
+    <t>584236738</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Totally Redone!</t>
+  </si>
+  <si>
+    <t>I stayed here a year or so ago...it has been completely redone and the rooms are awesome. The staff is really nice and for the price you cant beat it. Great location also very close to Walmart and lots of good eats.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here a year or so ago...it has been completely redone and the rooms are awesome. The staff is really nice and for the price you cant beat it. Great location also very close to Walmart and lots of good eats.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r572967093-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>572967093</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truck driver </t>
+  </si>
+  <si>
+    <t>They have truck parking and the manager is nice. That said I checked into my room and both beds had hair on the sheets like they hadn’t been changed since the last guest. Manager gave me another room same thing. The excuse was it was from the house keeping when they folded the sheets. Needless to say I checked out had them refund my card. Being a truck driver it was nice and new rooms, truck parking and a Waffle House next door. Would have stayed but I can’t sleep in a dirty bed. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Houston, responded to this reviewResponded April 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2018</t>
+  </si>
+  <si>
+    <t>They have truck parking and the manager is nice. That said I checked into my room and both beds had hair on the sheets like they hadn’t been changed since the last guest. Manager gave me another room same thing. The excuse was it was from the house keeping when they folded the sheets. Needless to say I checked out had them refund my card. Being a truck driver it was nice and new rooms, truck parking and a Waffle House next door. Would have stayed but I can’t sleep in a dirty bed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r475414174-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>475414174</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Staff was great, very friendly and helpful. Clean and spacious room. Not fancy but the best value for the area for sure! The pool was a blast and a bonus for the kiddos. Very good location. We will be back.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r399727511-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>399727511</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Stay here Safety and Cleanliness are Not Here </t>
+  </si>
+  <si>
+    <t>I stayed here with my daughter while waiting for own new home to get ready because they are pet friendly.  It is very apparent that the GM, is not checking rooms or anyone for that matter just look at the pictures.....food splatter on the wall, mold in the bathroom, both drawers were filthy...looked like some kind of ashes or left over from drugs, electrical outlet comes out of the wall!!!!! Not to mention that the dead bolt was not even two pieces that went together!!!! And I was given a smoking room that smelt horrible after requesting non smoking!!!! I told the desk clerk about these issues after we made it to the room, a week later had to contact guest relations because nothing had been done, then the GM sends housekeeping to the room and she says "how nasty" as she cleans it!!!! I told her I felt the same way and I was paying for this!!! Just look at the pictures.....they don't lie....oh and the lights don't work and the maintenance man said he needed to rewire the wall....just done with this....really just shut the doors if you can't do better!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I stayed here with my daughter while waiting for own new home to get ready because they are pet friendly.  It is very apparent that the GM, is not checking rooms or anyone for that matter just look at the pictures.....food splatter on the wall, mold in the bathroom, both drawers were filthy...looked like some kind of ashes or left over from drugs, electrical outlet comes out of the wall!!!!! Not to mention that the dead bolt was not even two pieces that went together!!!! And I was given a smoking room that smelt horrible after requesting non smoking!!!! I told the desk clerk about these issues after we made it to the room, a week later had to contact guest relations because nothing had been done, then the GM sends housekeeping to the room and she says "how nasty" as she cleans it!!!! I told her I felt the same way and I was paying for this!!! Just look at the pictures.....they don't lie....oh and the lights don't work and the maintenance man said he needed to rewire the wall....just done with this....really just shut the doors if you can't do better!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r363071068-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>363071068</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>extremely aweful</t>
+  </si>
+  <si>
+    <t>my mother and i tried to check out in the 1st hour we were there, and after arguing with the front desk, we were not able to get a refund, there was no hot water no wifi in the room, they gave us a wifi password but still did not work, the maintenence man told me he was also not able to use his phone in room"s. the pool was disusting  and my grandaughter was not able to swim. There are no dressers either in room, they do not change sheets every day and ask that you save your towels for a few days, this was the note left on the beds for us when we arived, the door to our room was alll chipped paint ! the place was dirty. For someone like myself who does not travel alot I was so very disapointed, next day we moved over to laquinta who was very wonderfulMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>my mother and i tried to check out in the 1st hour we were there, and after arguing with the front desk, we were not able to get a refund, there was no hot water no wifi in the room, they gave us a wifi password but still did not work, the maintenence man told me he was also not able to use his phone in room"s. the pool was disusting  and my grandaughter was not able to swim. There are no dressers either in room, they do not change sheets every day and ask that you save your towels for a few days, this was the note left on the beds for us when we arived, the door to our room was alll chipped paint ! the place was dirty. For someone like myself who does not travel alot I was so very disapointed, next day we moved over to laquinta who was very wonderfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r353421779-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>353421779</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Sleep in your car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room didn't look too bad upon arrival. Boy did that change. Nightly partying from the apparent "live-ins" got old fast. Even had a crackhead jump through a window while I was there. Not once the whole week did they even come to clean the room. Never again. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r318368588-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>318368588</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel in the United States</t>
+  </si>
+  <si>
+    <t>Customer service sucks and the manager makes excuses for everything!  Housekeeping will not work to help you if anything extra is needed!  Nothing is his fault and do not expect them to give you a refund!  The front desk staff are rude and do not care about helping you!  Best advice ever...STAY AWAY!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Customer service sucks and the manager makes excuses for everything!  Housekeeping will not work to help you if anything extra is needed!  Nothing is his fault and do not expect them to give you a refund!  The front desk staff are rude and do not care about helping you!  Best advice ever...STAY AWAY!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r311845691-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>311845691</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Ran like trash and looked like it too!</t>
+  </si>
+  <si>
+    <t>Called hotel 4 hours before arrival,  received the worst customer service ever....was completely rushed off the phone. Called the property three mores times and got the same rudeness.   The only reason I stayed here after I experienced this was because they are pet friendly.  I was told after 3pm that my room would be ready by 430! Things really only got worse from there.  You can clearly see the GM at this property does not care, and I did speak with her....but I guess that's where her staff gets the rudeness from and the lack of caring from.  Training, training, training is really needed at this property from the GM all the way to housekeeping.   The worst part of my stay was that the staff didn't even realize the problem or know how to handle it,  I had to explain to them the proper way to handle the situation. I would not have even given one star if it was possible.   Do yourself a favor and stay away.   She operates this hotel like a Crack hotel and the staff do also.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Called hotel 4 hours before arrival,  received the worst customer service ever....was completely rushed off the phone. Called the property three mores times and got the same rudeness.   The only reason I stayed here after I experienced this was because they are pet friendly.  I was told after 3pm that my room would be ready by 430! Things really only got worse from there.  You can clearly see the GM at this property does not care, and I did speak with her....but I guess that's where her staff gets the rudeness from and the lack of caring from.  Training, training, training is really needed at this property from the GM all the way to housekeeping.   The worst part of my stay was that the staff didn't even realize the problem or know how to handle it,  I had to explain to them the proper way to handle the situation. I would not have even given one star if it was possible.   Do yourself a favor and stay away.   She operates this hotel like a Crack hotel and the staff do also.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r284351351-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>284351351</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Place! </t>
+  </si>
+  <si>
+    <t>For a family of four, traveling can be costly. And finding a location that is pet friendly is difficult unless you pay the price. Motel6 in Baytown offered great prices, internet, reasonably nice rooms with a refrigerator and microwave and clean linens. Guest services were polite and friendly. Maid services were efficient and polite.It's a great location to be close to everything in town. You cannot hear your neighbors... the AC is so loud we didn't hear anything in the room next to us and they didn't hear anything either. NICE.My only complaint would be the awful coffee. But there's a Buccees and a Starbucks nearby (we just bought a small coffee pot from Walmart).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>For a family of four, traveling can be costly. And finding a location that is pet friendly is difficult unless you pay the price. Motel6 in Baytown offered great prices, internet, reasonably nice rooms with a refrigerator and microwave and clean linens. Guest services were polite and friendly. Maid services were efficient and polite.It's a great location to be close to everything in town. You cannot hear your neighbors... the AC is so loud we didn't hear anything in the room next to us and they didn't hear anything either. NICE.My only complaint would be the awful coffee. But there's a Buccees and a Starbucks nearby (we just bought a small coffee pot from Walmart).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r268407416-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>268407416</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Horrible!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I have added pics to back-up this review, unfortunately the really bad ones are to large to post to the site.  First, it would be better to sleep in your car than to pay to sleep here.  They claim that it has been recently renovated and if so it scares me to think what it was like before.  This place is a dump.  We had a party of eight with 4 rooms and all were the same.  Floors un-swept, dirty molded shower, molded broken AC system, worn and out-dated furniture, un-level floors (so un-level that dresser was leaning so bad that that TV on top was close to falling off), no shampoo (we were informed that they do not provide shampoo), shower and sink would not drain properly, roach's in room, dirty bathroom vents and dirty un-kept grounds.  The staff was uncaring and unconcerned about the comfort of the guests.  All of these issues were reported to the front desk, who listened but provided not explanation or apology.  Discovered that only one wash cloth was left in our room so called front desk.  Was told that they (they meaning at least two people) could not leave the front office to bring us one but we could come get it.  Claimed that morning coffee was provided in front lobby but the one and only pot was empty.  This place is crap and Motel 6 as a chain should be ashamed.  We...I have added pics to back-up this review, unfortunately the really bad ones are to large to post to the site.  First, it would be better to sleep in your car than to pay to sleep here.  They claim that it has been recently renovated and if so it scares me to think what it was like before.  This place is a dump.  We had a party of eight with 4 rooms and all were the same.  Floors un-swept, dirty molded shower, molded broken AC system, worn and out-dated furniture, un-level floors (so un-level that dresser was leaning so bad that that TV on top was close to falling off), no shampoo (we were informed that they do not provide shampoo), shower and sink would not drain properly, roach's in room, dirty bathroom vents and dirty un-kept grounds.  The staff was uncaring and unconcerned about the comfort of the guests.  All of these issues were reported to the front desk, who listened but provided not explanation or apology.  Discovered that only one wash cloth was left in our room so called front desk.  Was told that they (they meaning at least two people) could not leave the front office to bring us one but we could come get it.  Claimed that morning coffee was provided in front lobby but the one and only pot was empty.  This place is crap and Motel 6 as a chain should be ashamed.  We will never stay here or at another Motel 6 ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>I have added pics to back-up this review, unfortunately the really bad ones are to large to post to the site.  First, it would be better to sleep in your car than to pay to sleep here.  They claim that it has been recently renovated and if so it scares me to think what it was like before.  This place is a dump.  We had a party of eight with 4 rooms and all were the same.  Floors un-swept, dirty molded shower, molded broken AC system, worn and out-dated furniture, un-level floors (so un-level that dresser was leaning so bad that that TV on top was close to falling off), no shampoo (we were informed that they do not provide shampoo), shower and sink would not drain properly, roach's in room, dirty bathroom vents and dirty un-kept grounds.  The staff was uncaring and unconcerned about the comfort of the guests.  All of these issues were reported to the front desk, who listened but provided not explanation or apology.  Discovered that only one wash cloth was left in our room so called front desk.  Was told that they (they meaning at least two people) could not leave the front office to bring us one but we could come get it.  Claimed that morning coffee was provided in front lobby but the one and only pot was empty.  This place is crap and Motel 6 as a chain should be ashamed.  We...I have added pics to back-up this review, unfortunately the really bad ones are to large to post to the site.  First, it would be better to sleep in your car than to pay to sleep here.  They claim that it has been recently renovated and if so it scares me to think what it was like before.  This place is a dump.  We had a party of eight with 4 rooms and all were the same.  Floors un-swept, dirty molded shower, molded broken AC system, worn and out-dated furniture, un-level floors (so un-level that dresser was leaning so bad that that TV on top was close to falling off), no shampoo (we were informed that they do not provide shampoo), shower and sink would not drain properly, roach's in room, dirty bathroom vents and dirty un-kept grounds.  The staff was uncaring and unconcerned about the comfort of the guests.  All of these issues were reported to the front desk, who listened but provided not explanation or apology.  Discovered that only one wash cloth was left in our room so called front desk.  Was told that they (they meaning at least two people) could not leave the front office to bring us one but we could come get it.  Claimed that morning coffee was provided in front lobby but the one and only pot was empty.  This place is crap and Motel 6 as a chain should be ashamed.  We will never stay here or at another Motel 6 ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r264292799-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>264292799</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly surprises</t>
+  </si>
+  <si>
+    <t>The Baytown Motel 6 is probably one of the nicer Motel 6s in the area. Motel 6 falls into a certain price category and this one towers above the competition in that price range.The room appeared to be recently redone as well as smell smoke free. The staff at check in was friendly and helpful. The towels were not scratchy and weird feeling.Feel confident in this selection! It's cheap and a decent, safe place to stay.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r263284225-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>263284225</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Not bad for an overnight</t>
+  </si>
+  <si>
+    <t>We stopped here on our cross country trip with our dog. It was a rather dated motel but comfortable. However, the desk clerk was not familiar with the area and didn't have a clue as to the restaurants in the area. We did find a great Mexican restaurant nearby.It was clean and comfortable motel but shy on towels and only one pillow per person.OK for an overnight stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r240909615-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>240909615</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Nice room, good rate</t>
+  </si>
+  <si>
+    <t>Conveniently located off the highway, this Motel 6 makes an effort to look decent.  Rooms are mostly renovated though some more work could be done to have bathtubs fully updated. Nice laminate floors, comfortable bed, and generally decent shape, made for a good stay.  The one thing missing for my needs was a fridge in the room.  Some of the rooms do have them, just none were available for my stay.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r240225232-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>240225232</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable. Large vehicle parking is available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay in hotels 300 + nights yearly.   I stayed at this hotel on 10/15/14.  I've stayed at this hotel many times over the years and have always found it to be nice.   I stayed in a remodeled room which was very clean.  The bed was comfortable and the water pressure was fantastic.   Overall, a great place to stay. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r219307397-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>219307397</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Myself and some coworkers stayed here because it was priced right.  We got there at 5 pm and my room wasn't cleaned yet.  One of my coworkers got to his room and the stench was unbearable!  He asked for another room and go one on the second floor.  My room was finally cleaned at about 6:15 pm.  The room smelled like smoke even though there was a no smoking sticker on the door.  However there was ash trays turned upside down with a no smoking sticker on the bottom.   Later my Coworker came to my room with a picture on his phone, he asked if that was a cock roach.   I said yes it was.  He complained to the office again and they said they didn't have any other rooms.  They don't have any rooms because nearly a whole building was being remodeled!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Myself and some coworkers stayed here because it was priced right.  We got there at 5 pm and my room wasn't cleaned yet.  One of my coworkers got to his room and the stench was unbearable!  He asked for another room and go one on the second floor.  My room was finally cleaned at about 6:15 pm.  The room smelled like smoke even though there was a no smoking sticker on the door.  However there was ash trays turned upside down with a no smoking sticker on the bottom.   Later my Coworker came to my room with a picture on his phone, he asked if that was a cock roach.   I said yes it was.  He complained to the office again and they said they didn't have any other rooms.  They don't have any rooms because nearly a whole building was being remodeled!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r196327763-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>196327763</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Why they really leave the lights on for you</t>
+  </si>
+  <si>
+    <t>Our room did look like the picture I saw except we had no microwave or refrigerator. The lights are left on so you don't see the huge roaches and I'm not embellishing on the size. About to take a shower, even though after driving all nite and most of the next day a long soak in the tub is what I wanted. Bath tub had been painted and paint chips were everywhere in tub and no stopper for tub. I was all ready for shower when I pulled shower curtain back and saw the biggest roach I've ever seen. It was every bit of 3 inches. Asking for a room with amenities I was told all rooms were booked so I decided to get some sleep. While this motel is right off the interstate what they don't mention is the equipment yard next door or the other loud rude guest. I went to the front desk to see about a partial refund because there was no reason for me to stay, but I could not get anyone to the front desk. The next day I got an email from the corporate office asking about my stay. I explained to them everything that I took issue with and the response was a generic apology response, but no mention of the partial refund I deserve. Electricity is the only thing I used at the motel. I have stayed at other Motel 6...Our room did look like the picture I saw except we had no microwave or refrigerator. The lights are left on so you don't see the huge roaches and I'm not embellishing on the size. About to take a shower, even though after driving all nite and most of the next day a long soak in the tub is what I wanted. Bath tub had been painted and paint chips were everywhere in tub and no stopper for tub. I was all ready for shower when I pulled shower curtain back and saw the biggest roach I've ever seen. It was every bit of 3 inches. Asking for a room with amenities I was told all rooms were booked so I decided to get some sleep. While this motel is right off the interstate what they don't mention is the equipment yard next door or the other loud rude guest. I went to the front desk to see about a partial refund because there was no reason for me to stay, but I could not get anyone to the front desk. The next day I got an email from the corporate office asking about my stay. I explained to them everything that I took issue with and the response was a generic apology response, but no mention of the partial refund I deserve. Electricity is the only thing I used at the motel. I have stayed at other Motel 6 and been pleased with the stay. From now on I do not book a room until I've had the opportunity to see the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room did look like the picture I saw except we had no microwave or refrigerator. The lights are left on so you don't see the huge roaches and I'm not embellishing on the size. About to take a shower, even though after driving all nite and most of the next day a long soak in the tub is what I wanted. Bath tub had been painted and paint chips were everywhere in tub and no stopper for tub. I was all ready for shower when I pulled shower curtain back and saw the biggest roach I've ever seen. It was every bit of 3 inches. Asking for a room with amenities I was told all rooms were booked so I decided to get some sleep. While this motel is right off the interstate what they don't mention is the equipment yard next door or the other loud rude guest. I went to the front desk to see about a partial refund because there was no reason for me to stay, but I could not get anyone to the front desk. The next day I got an email from the corporate office asking about my stay. I explained to them everything that I took issue with and the response was a generic apology response, but no mention of the partial refund I deserve. Electricity is the only thing I used at the motel. I have stayed at other Motel 6...Our room did look like the picture I saw except we had no microwave or refrigerator. The lights are left on so you don't see the huge roaches and I'm not embellishing on the size. About to take a shower, even though after driving all nite and most of the next day a long soak in the tub is what I wanted. Bath tub had been painted and paint chips were everywhere in tub and no stopper for tub. I was all ready for shower when I pulled shower curtain back and saw the biggest roach I've ever seen. It was every bit of 3 inches. Asking for a room with amenities I was told all rooms were booked so I decided to get some sleep. While this motel is right off the interstate what they don't mention is the equipment yard next door or the other loud rude guest. I went to the front desk to see about a partial refund because there was no reason for me to stay, but I could not get anyone to the front desk. The next day I got an email from the corporate office asking about my stay. I explained to them everything that I took issue with and the response was a generic apology response, but no mention of the partial refund I deserve. Electricity is the only thing I used at the motel. I have stayed at other Motel 6 and been pleased with the stay. From now on I do not book a room until I've had the opportunity to see the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r189041157-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>189041157</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Maybe a *second option* for overnight stay.</t>
+  </si>
+  <si>
+    <t>Excellent location just off IH-10. Good choice of fast food restaurants very close. Arrived in the middle of the night without any reservation and the lady who checked us in (I didn't catch the name, sorry) was very friendly. I must say it felt kinda creepy driving into the hotel because of poor parking lot illumination. Although it wasn't a bad overnight stay, and the room seemed very nice, I must say it's a big bummer when you find a somewhat old and rusty shower and knobs. Cleanliness was hardly average.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r131086369-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>131086369</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>won't be back</t>
+  </si>
+  <si>
+    <t>I know this is a low price motel and we just stayed the night but I wish now we had gone to the Super 8 across the street.  The room was hot and stuffy all night even though the A/C was on full blast all night.  We couldn't get all the lights to work. They spend the money for a big flat screen TV but don't have a hair dryer in the bath or an outlet for one but they have a bottle opener.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r31852592-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>31852592</t>
+  </si>
+  <si>
+    <t>06/08/2009</t>
+  </si>
+  <si>
+    <t>One of the most pleasant surprises of my life</t>
+  </si>
+  <si>
+    <t>I was returning to Baton Rouge late last Saturday evening (June 6).  I had thought I would drive all the way to Baton Rouge, but I became really tired.  I was passing through Baytown, took the exit, and saw the Motel 6.  Generally, I do not stay at Motel 6, but the outside looked just fine and it was in a great location.  I went in, and the clerk told me the rooms were recently renovated, including new mattresses.  I decided to say and I am so glad I did.  I could not believe how nice the room was.  Everything was immaculately clean and fresh.  The wood-effect flooring was great and such a nice change from carpeting and the basin in the bathroom was great .  But the best surprise was how wonderfully comfortable the bed was.  Also, the flat screen TV and cable offerings were an added bonus.  From now on, as I travel, I will look a newly renovated Motel 6.  I could not believe  that I was in a Motel 6.  It was truly a bargain and I could not ask for more!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I was returning to Baton Rouge late last Saturday evening (June 6).  I had thought I would drive all the way to Baton Rouge, but I became really tired.  I was passing through Baytown, took the exit, and saw the Motel 6.  Generally, I do not stay at Motel 6, but the outside looked just fine and it was in a great location.  I went in, and the clerk told me the rooms were recently renovated, including new mattresses.  I decided to say and I am so glad I did.  I could not believe how nice the room was.  Everything was immaculately clean and fresh.  The wood-effect flooring was great and such a nice change from carpeting and the basin in the bathroom was great .  But the best surprise was how wonderfully comfortable the bed was.  Also, the flat screen TV and cable offerings were an added bonus.  From now on, as I travel, I will look a newly renovated Motel 6.  I could not believe  that I was in a Motel 6.  It was truly a bargain and I could not ask for more!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r13875662-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>13875662</t>
+  </si>
+  <si>
+    <t>02/26/2008</t>
+  </si>
+  <si>
+    <t>Not bad.  Good price.</t>
+  </si>
+  <si>
+    <t>Stayed here while traveling through.  Not bad.  Price was dirt cheap so I had my suspicions, but was perfect for what we needed...weary travelers who needed a clean place to crash for the night and get on the road the next day.  Nothing special, but you get what you pay for:  no breakfast, etc.  No problem for pet travelers (no fees, etc).  The website lists incorrect directions if you are going there.  I cant remember exactly what the exit number is, but for discussion sake let's say it is exit # X.  Well, Exit # X doesn't exist if you are westbound on I-10, only eastbound.  When you miss it, then decide to exit on the frontage road to double back, DO NOT stay on the westbound frontage road to the hotel.  Get back on I-10 eastbound and take the appropriate exit.  (the reason is because the frontage road becomes a mandatory U-turn and spits you back out where you initially exit.)  I know this is confusing, so to avoid it yourself, call the motel.  Trust me, at around midnight after all day driving, I wish I would have.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>Stayed here while traveling through.  Not bad.  Price was dirt cheap so I had my suspicions, but was perfect for what we needed...weary travelers who needed a clean place to crash for the night and get on the road the next day.  Nothing special, but you get what you pay for:  no breakfast, etc.  No problem for pet travelers (no fees, etc).  The website lists incorrect directions if you are going there.  I cant remember exactly what the exit number is, but for discussion sake let's say it is exit # X.  Well, Exit # X doesn't exist if you are westbound on I-10, only eastbound.  When you miss it, then decide to exit on the frontage road to double back, DO NOT stay on the westbound frontage road to the hotel.  Get back on I-10 eastbound and take the appropriate exit.  (the reason is because the frontage road becomes a mandatory U-turn and spits you back out where you initially exit.)  I know this is confusing, so to avoid it yourself, call the motel.  Trust me, at around midnight after all day driving, I wish I would have.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r8400309-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>8400309</t>
+  </si>
+  <si>
+    <t>08/11/2007</t>
+  </si>
+  <si>
+    <t>A Great Office Away from Home</t>
+  </si>
+  <si>
+    <t>I have stayed at Motel 6 in my travels many times, although always clean- they were always average, offering the basic motel accommodations, so I have never taken the time to write about one- until now.Whatever chain this property was originally built as, it has some great business traveler features, and Motel 6 has kept it fresh and appealing.I really was surprised to see a work station on the wall where there is typically a long low 4 to 6 drawer dresser in most motels, with the TV sitting on it. This is in addition to the typical square table that I usually end up using as a desk. The fact there is an outlet and shelves also was a nice touch. The paint and carpet are fairly new, and the vanity has its own alcove, with a door separating it to the bathroomI would recommend this motel to anyone doing business in the Baytown areaMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>I have stayed at Motel 6 in my travels many times, although always clean- they were always average, offering the basic motel accommodations, so I have never taken the time to write about one- until now.Whatever chain this property was originally built as, it has some great business traveler features, and Motel 6 has kept it fresh and appealing.I really was surprised to see a work station on the wall where there is typically a long low 4 to 6 drawer dresser in most motels, with the TV sitting on it. This is in addition to the typical square table that I usually end up using as a desk. The fact there is an outlet and shelves also was a nice touch. The paint and carpet are fairly new, and the vanity has its own alcove, with a door separating it to the bathroomI would recommend this motel to anyone doing business in the Baytown areaMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1006,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1038,1372 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_494.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_494.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r598460684-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>244335</t>
+  </si>
+  <si>
+    <t>598460684</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Outstanding customer service</t>
+  </si>
+  <si>
+    <t>My husband is very picky about his room. We had to move twice before he was happy. Now this is NOT the motel's fault and I always cringe when he gets so demanding. The front desk girl was a bit overwhelmed and got her manager, Casey involved. Casey was so nice and understanding and made us feel like we weren't being the annoying customer! Thank you for making us feel welcome and content!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r597024757-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>597024757</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>We stayed at motel 6 on 146 and I-10 for five night the front desk ladies were very friendly at all times. The pool was great with the heat the office it always very clean, coffee in the am was nice. Rooms have been remodeled recently is what I was told by front desk, the best nights rest I have gotten in awhile. I would recommend this location to family and friends due to the great service from all staff</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r584236738-Motel_6_Houston-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>244335</t>
-  </si>
-  <si>
     <t>584236738</t>
   </si>
   <si>
@@ -234,7 +270,57 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r469897734-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>469897734</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Underwhelming</t>
+  </si>
+  <si>
+    <t>This is the first Motel 6 I have stayed at in a long time. It is conveniently located being at the intersection of I-10 and Hwy 146 which is close to various restaurants/services but about 30 miles from Houston and even farther away from any airports.
+I stayed in room 106 for one night. The property is 2 story with 2 separate buildings. The room was cheap and you get what you pay for. The real issue was road noise all day and all night. It was much worse during the day and even with the air conditioner on you can hear it. The room I had faced the freeway.  The room itself was clean and had a newish appearance. The a/c unit was wall mounted and a bit underpowered.  There is one window facing out with a curtain that  had lots of holes in it through which sunlight passe.
+There was a queen bed, table top flatscreen TV, 3drawer hutch with 2 open compartments that could be also used for storage; desk and chair, table and chair, 2 small night stands and wall mounted bedside lamps.  
+Things that need improvement include: bathroom light is too weak, no shampoo or conditioner, one washcloth but 2 towels of poor quality, very few wall plugs, no guest PC for use, you have to pay to use the wifi, no kleenex and two very small soap bars.
+I will think twice before staying...This is the first Motel 6 I have stayed at in a long time. It is conveniently located being at the intersection of I-10 and Hwy 146 which is close to various restaurants/services but about 30 miles from Houston and even farther away from any airports.I stayed in room 106 for one night. The property is 2 story with 2 separate buildings. The room was cheap and you get what you pay for. The real issue was road noise all day and all night. It was much worse during the day and even with the air conditioner on you can hear it. The room I had faced the freeway.  The room itself was clean and had a newish appearance. The a/c unit was wall mounted and a bit underpowered.  There is one window facing out with a curtain that  had lots of holes in it through which sunlight passe.There was a queen bed, table top flatscreen TV, 3drawer hutch with 2 open compartments that could be also used for storage; desk and chair, table and chair, 2 small night stands and wall mounted bedside lamps.  Things that need improvement include: bathroom light is too weak, no shampoo or conditioner, one washcloth but 2 towels of poor quality, very few wall plugs, no guest PC for use, you have to pay to use the wifi, no kleenex and two very small soap bars.I will think twice before staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This is the first Motel 6 I have stayed at in a long time. It is conveniently located being at the intersection of I-10 and Hwy 146 which is close to various restaurants/services but about 30 miles from Houston and even farther away from any airports.
+I stayed in room 106 for one night. The property is 2 story with 2 separate buildings. The room was cheap and you get what you pay for. The real issue was road noise all day and all night. It was much worse during the day and even with the air conditioner on you can hear it. The room I had faced the freeway.  The room itself was clean and had a newish appearance. The a/c unit was wall mounted and a bit underpowered.  There is one window facing out with a curtain that  had lots of holes in it through which sunlight passe.
+There was a queen bed, table top flatscreen TV, 3drawer hutch with 2 open compartments that could be also used for storage; desk and chair, table and chair, 2 small night stands and wall mounted bedside lamps.  
+Things that need improvement include: bathroom light is too weak, no shampoo or conditioner, one washcloth but 2 towels of poor quality, very few wall plugs, no guest PC for use, you have to pay to use the wifi, no kleenex and two very small soap bars.
+I will think twice before staying...This is the first Motel 6 I have stayed at in a long time. It is conveniently located being at the intersection of I-10 and Hwy 146 which is close to various restaurants/services but about 30 miles from Houston and even farther away from any airports.I stayed in room 106 for one night. The property is 2 story with 2 separate buildings. The room was cheap and you get what you pay for. The real issue was road noise all day and all night. It was much worse during the day and even with the air conditioner on you can hear it. The room I had faced the freeway.  The room itself was clean and had a newish appearance. The a/c unit was wall mounted and a bit underpowered.  There is one window facing out with a curtain that  had lots of holes in it through which sunlight passe.There was a queen bed, table top flatscreen TV, 3drawer hutch with 2 open compartments that could be also used for storage; desk and chair, table and chair, 2 small night stands and wall mounted bedside lamps.  Things that need improvement include: bathroom light is too weak, no shampoo or conditioner, one washcloth but 2 towels of poor quality, very few wall plugs, no guest PC for use, you have to pay to use the wifi, no kleenex and two very small soap bars.I will think twice before staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r424852641-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>424852641</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Go somewhere else</t>
+  </si>
+  <si>
+    <t>My wife and I stayed from 9-30-2016 thru 10-02-2016. Made our reservations aweek ahead at Motel 6(stopped by the Motel itself on a previous trip), was told we would have a room downstairs-non smoking w/ fridge and micro. Got thereand was given a smoking room, no fridge or micro. On their commercials theysay all rooms have been remodeled, I think they MISSED this one.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r399727511-Motel_6_Houston-Baytown_Texas.html</t>
@@ -297,6 +383,51 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r350133016-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>350133016</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Our stay</t>
+  </si>
+  <si>
+    <t>Even though we were not happy with the room ERIC A gave us great customer service just excellent and when I say not happy with the room we had to lysol the bed we felt like it was not clean enough my husband has excema really severely,but the customer service wonderful room quality on a scale of 1_5 was a 1 the bedding had stains and burn holes I think I would have rather stay in our truck as truck drivers we like to stop and rest in a real bed 1 a week so to our surprise we walked in to see this the 2nd bed was just a tad bit better but we sprayed it down before actually  lying on it MoreShow less</t>
+  </si>
+  <si>
+    <t>Even though we were not happy with the room ERIC A gave us great customer service just excellent and when I say not happy with the room we had to lysol the bed we felt like it was not clean enough my husband has excema really severely,but the customer service wonderful room quality on a scale of 1_5 was a 1 the bedding had stains and burn holes I think I would have rather stay in our truck as truck drivers we like to stop and rest in a real bed 1 a week so to our surprise we walked in to see this the 2nd bed was just a tad bit better but we sprayed it down before actually  lying on it More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r320747046-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>320747046</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug's! </t>
+  </si>
+  <si>
+    <t>Do you like bug's crawling on your face at 730 in the morning?  Do you like taking a shower in 2" of water? We stayed here for 5 night's and not once did they change the sheets! Didn't have fridge and microwave like it said online when i booked it! Oh and they want to charge you $2.99 a day for freaking wifi are you Serious!!!! Dirtiest hotel I've ever stayed in! Holes in the floor,scratches on the Tv. When you have people living in your hotel full-time guarantee that it is going down the  crapper!!!! Do not Stay Here!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Do you like bug's crawling on your face at 730 in the morning?  Do you like taking a shower in 2" of water? We stayed here for 5 night's and not once did they change the sheets! Didn't have fridge and microwave like it said online when i booked it! Oh and they want to charge you $2.99 a day for freaking wifi are you Serious!!!! Dirtiest hotel I've ever stayed in! Holes in the floor,scratches on the Tv. When you have people living in your hotel full-time guarantee that it is going down the  crapper!!!! Do not Stay Here!!!! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r318368588-Motel_6_Houston-Baytown_Texas.html</t>
   </si>
   <si>
@@ -312,12 +443,6 @@
     <t>Customer service sucks and the manager makes excuses for everything!  Housekeeping will not work to help you if anything extra is needed!  Nothing is his fault and do not expect them to give you a refund!  The front desk staff are rude and do not care about helping you!  Best advice ever...STAY AWAY!!! MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>6Team, brand expericened team member at Motel 6 Houston, responded to this reviewResponded October 14, 2015</t>
   </si>
   <si>
@@ -375,6 +500,51 @@
     <t>For a family of four, traveling can be costly. And finding a location that is pet friendly is difficult unless you pay the price. Motel6 in Baytown offered great prices, internet, reasonably nice rooms with a refrigerator and microwave and clean linens. Guest services were polite and friendly. Maid services were efficient and polite.It's a great location to be close to everything in town. You cannot hear your neighbors... the AC is so loud we didn't hear anything in the room next to us and they didn't hear anything either. NICE.My only complaint would be the awful coffee. But there's a Buccees and a Starbucks nearby (we just bought a small coffee pot from Walmart).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r281589245-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>281589245</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Not a good place</t>
+  </si>
+  <si>
+    <t>No microwave  or refrigerator, has roaches and gnats in the room not a good environment.  It's the cheapest in town but not ideal. Avoid this place if possible. The room was not cleaned well. There was unsavory  characters living  there as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r273085665-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>273085665</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Victim</t>
+  </si>
+  <si>
+    <t>Sheets and Room dirty. They charge you extra for microwave/fridge ?! Charge for WiFi too. But the dirty sheets, and bugs are free.  I would avoid like a plaque.  Oh tv cable is free, but you get very limited channels. These people skip on the things that make people come and/or stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Sheets and Room dirty. They charge you extra for microwave/fridge ?! Charge for WiFi too. But the dirty sheets, and bugs are free.  I would avoid like a plaque.  Oh tv cable is free, but you get very limited channels. These people skip on the things that make people come and/or stay. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r268407416-Motel_6_Houston-Baytown_Texas.html</t>
   </si>
   <si>
@@ -393,9 +563,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Houston, responded to this reviewResponded May 1, 2015</t>
   </si>
   <si>
@@ -423,9 +590,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r263284225-Motel_6_Houston-Baytown_Texas.html</t>
   </si>
   <si>
@@ -441,6 +605,42 @@
     <t>We stopped here on our cross country trip with our dog. It was a rather dated motel but comfortable. However, the desk clerk was not familiar with the area and didn't have a clue as to the restaurants in the area. We did find a great Mexican restaurant nearby.It was clean and comfortable motel but shy on towels and only one pillow per person.OK for an overnight stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r254119022-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>254119022</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Liars</t>
+  </si>
+  <si>
+    <t>No microwave or refrigerator in the rooms.  Pretty dead room... Staff don't know how to do anything... no free wifi at all...I guess u get what u get for a cheap price hotel... no clocks in the room...no coffee makers n their website calls for all of that</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r250946988-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>250946988</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>room was somewhat dated , seemed to be alot of people living there</t>
+  </si>
+  <si>
+    <t>Lot's of workers living there from the nearby oil fields, which is understandable. But it was somewhat sketchy with that many people around. Kind of expensive for what we got in return. ............................................................</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r240909615-Motel_6_Houston-Baytown_Texas.html</t>
   </si>
   <si>
@@ -498,6 +698,39 @@
     <t>Myself and some coworkers stayed here because it was priced right.  We got there at 5 pm and my room wasn't cleaned yet.  One of my coworkers got to his room and the stench was unbearable!  He asked for another room and go one on the second floor.  My room was finally cleaned at about 6:15 pm.  The room smelled like smoke even though there was a no smoking sticker on the door.  However there was ash trays turned upside down with a no smoking sticker on the bottom.   Later my Coworker came to my room with a picture on his phone, he asked if that was a cock roach.   I said yes it was.  He complained to the office again and they said they didn't have any other rooms.  They don't have any rooms because nearly a whole building was being remodeled!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r218109620-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>218109620</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Spotless Refurbished Room</t>
+  </si>
+  <si>
+    <t>Stayed 1 night at motel  6 Houston Baytown East number 1136 after reading favorable TA reviews. GoodLocation immediately off I-10. Room spotless and refurbished with new motel 6 modern style. King bed nonsmoking. Some noise from highway but putting under good as I found level acceptable. Checkin smooth. Received both discount and free internet as I had AARP card. Mexican restaurant across street great. BadCommented to front desk staff that my nonsmoking room had an ashtray in it and my bed cover, not mattress, had cigarette burn. Did not want to be charged. I questioned why ashtray in nonsmoking rooms. I prefer motel 6 hotels that have signs that say significant fine if person smokes in NS room. Person at front desk agreed but someone in charge directs that ashtrays be in all Rooms. no smoke odor in room just object to ashtray as I feel it encourages some to smoke in NS room. RecommendationI would stay again. Reasonably Good location. Felt very safe. Very clean room. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 1 night at motel  6 Houston Baytown East number 1136 after reading favorable TA reviews. GoodLocation immediately off I-10. Room spotless and refurbished with new motel 6 modern style. King bed nonsmoking. Some noise from highway but putting under good as I found level acceptable. Checkin smooth. Received both discount and free internet as I had AARP card. Mexican restaurant across street great. BadCommented to front desk staff that my nonsmoking room had an ashtray in it and my bed cover, not mattress, had cigarette burn. Did not want to be charged. I questioned why ashtray in nonsmoking rooms. I prefer motel 6 hotels that have signs that say significant fine if person smokes in NS room. Person at front desk agreed but someone in charge directs that ashtrays be in all Rooms. no smoke odor in room just object to ashtray as I feel it encourages some to smoke in NS room. RecommendationI would stay again. Reasonably Good location. Felt very safe. Very clean room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r200224904-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>200224904</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Good place to lay your head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable bed and clean room. Nice hardwood floors. There were no roaches or bugs but we did have a slight problem with the plumbing. Customer service was what you would expect at a $40 a night hotel - with the toliet clogged the office said they had no public restrooms and made my husband go to Waffle House or the gas station next store in the morning. It was a fine motel to stop for a night to just rest, if you are looking for something more than that, possibly seek elsewhere. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r196327763-Motel_6_Houston-Baytown_Texas.html</t>
   </si>
   <si>
@@ -550,6 +783,50 @@
   </si>
   <si>
     <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r118720860-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>118720860</t>
+  </si>
+  <si>
+    <t>09/28/2011</t>
+  </si>
+  <si>
+    <t>Disappointing compared to other "Refreshed" Motel 6 locations</t>
+  </si>
+  <si>
+    <t>Given the overall decent reviews, I expected more from this Motel 6. It wasn't bad, and in fact I would recommend it. Just not quite up to par for our odd requirements.
+The room itself was very nice. New flooring, marble sink countertop, good shower pressure, etc. The a/c was already running, so the room was good &amp; cold upon arrival. In fact, it worked so well we had to turn it to Low Fan mode in the middle of the night! Unheard of for my overheating husband.
+The channel lineup was dismal. Motel 6 is rarely without Cartoon Network, but this one was, and there were no other kid-friendly channels to replace it. I understand that this is likely a regional thing, and probably couldn't be helped. This is, for us, one of those major irritations, so if you're as picky as we are (gotta have that adult swim lineup!), be forewarned. CN was still on the channel lineup, which just added insult to injury.
+We keep a Zune in case of such emergencies - just hook up to the TV and watch movies or listen to music off of it, right?  The flatscreen TV absolutely refused to allow a connection to the a/v jacks. I believe something was probably not plugged in properly, and we likely could have had it resolved earlier in the day, but it was late, and sleep was more important.
+The beds were adequate...Given the overall decent reviews, I expected more from this Motel 6. It wasn't bad, and in fact I would recommend it. Just not quite up to par for our odd requirements.The room itself was very nice. New flooring, marble sink countertop, good shower pressure, etc. The a/c was already running, so the room was good &amp; cold upon arrival. In fact, it worked so well we had to turn it to Low Fan mode in the middle of the night! Unheard of for my overheating husband.The channel lineup was dismal. Motel 6 is rarely without Cartoon Network, but this one was, and there were no other kid-friendly channels to replace it. I understand that this is likely a regional thing, and probably couldn't be helped. This is, for us, one of those major irritations, so if you're as picky as we are (gotta have that adult swim lineup!), be forewarned. CN was still on the channel lineup, which just added insult to injury.We keep a Zune in case of such emergencies - just hook up to the TV and watch movies or listen to music off of it, right?  The flatscreen TV absolutely refused to allow a connection to the a/v jacks. I believe something was probably not plugged in properly, and we likely could have had it resolved earlier in the day, but it was late, and sleep was more important.The beds were adequate - standard well-used Motel 6 mattresses, sloping toward the middle. Everything was clean.Coke products &amp; a microwave in the lobby vending area = bonus points. (Micro/fridge available in some rooms for $3, as well as pay-for wifi. I never have good luck with M6 wifi, so didn't opt for that.)The ice machine was a little tricky to find, as there were no signs for it. Get directions. :)Didn't need to do laundry, so didn't ask if facilities were available.The girl who checked me in (no nametags, grr!) was polite and friendly. Checkout in the morning was less so. So...service was 50/50.The most irritating thing about this stay wasn't the hotel's fault at all, but I'll note it anyway. Some woman came banging on our door at 6:30am, looking for someone else. We needed to get up early, but it's just so aggravating when you get woken up a half hour or so *before* planned, because you never get back to sleep.All in all, I would give this location another chance, but would definitely make sure the TV jacks were hooked up properly before getting too comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Given the overall decent reviews, I expected more from this Motel 6. It wasn't bad, and in fact I would recommend it. Just not quite up to par for our odd requirements.
+The room itself was very nice. New flooring, marble sink countertop, good shower pressure, etc. The a/c was already running, so the room was good &amp; cold upon arrival. In fact, it worked so well we had to turn it to Low Fan mode in the middle of the night! Unheard of for my overheating husband.
+The channel lineup was dismal. Motel 6 is rarely without Cartoon Network, but this one was, and there were no other kid-friendly channels to replace it. I understand that this is likely a regional thing, and probably couldn't be helped. This is, for us, one of those major irritations, so if you're as picky as we are (gotta have that adult swim lineup!), be forewarned. CN was still on the channel lineup, which just added insult to injury.
+We keep a Zune in case of such emergencies - just hook up to the TV and watch movies or listen to music off of it, right?  The flatscreen TV absolutely refused to allow a connection to the a/v jacks. I believe something was probably not plugged in properly, and we likely could have had it resolved earlier in the day, but it was late, and sleep was more important.
+The beds were adequate...Given the overall decent reviews, I expected more from this Motel 6. It wasn't bad, and in fact I would recommend it. Just not quite up to par for our odd requirements.The room itself was very nice. New flooring, marble sink countertop, good shower pressure, etc. The a/c was already running, so the room was good &amp; cold upon arrival. In fact, it worked so well we had to turn it to Low Fan mode in the middle of the night! Unheard of for my overheating husband.The channel lineup was dismal. Motel 6 is rarely without Cartoon Network, but this one was, and there were no other kid-friendly channels to replace it. I understand that this is likely a regional thing, and probably couldn't be helped. This is, for us, one of those major irritations, so if you're as picky as we are (gotta have that adult swim lineup!), be forewarned. CN was still on the channel lineup, which just added insult to injury.We keep a Zune in case of such emergencies - just hook up to the TV and watch movies or listen to music off of it, right?  The flatscreen TV absolutely refused to allow a connection to the a/v jacks. I believe something was probably not plugged in properly, and we likely could have had it resolved earlier in the day, but it was late, and sleep was more important.The beds were adequate - standard well-used Motel 6 mattresses, sloping toward the middle. Everything was clean.Coke products &amp; a microwave in the lobby vending area = bonus points. (Micro/fridge available in some rooms for $3, as well as pay-for wifi. I never have good luck with M6 wifi, so didn't opt for that.)The ice machine was a little tricky to find, as there were no signs for it. Get directions. :)Didn't need to do laundry, so didn't ask if facilities were available.The girl who checked me in (no nametags, grr!) was polite and friendly. Checkout in the morning was less so. So...service was 50/50.The most irritating thing about this stay wasn't the hotel's fault at all, but I'll note it anyway. Some woman came banging on our door at 6:30am, looking for someone else. We needed to get up early, but it's just so aggravating when you get woken up a half hour or so *before* planned, because you never get back to sleep.All in all, I would give this location another chance, but would definitely make sure the TV jacks were hooked up properly before getting too comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r72316545-Motel_6_Houston-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>72316545</t>
+  </si>
+  <si>
+    <t>07/25/2010</t>
+  </si>
+  <si>
+    <t>Good deal!</t>
+  </si>
+  <si>
+    <t>This place is conveniently located off I-10, a major interstate. Outside is kind of run down and a little creapy. Pool was small but seemed ok, closes at 10, so no late night swimming.Rooms were basic but very clean and roomy. Loved the floors. (NO funky, dirty carpeting!) Beds were comfy but could have used another blanket..Recently updated Overall, for the price...would definitely stay again.: )</t>
+  </si>
+  <si>
+    <t>July 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d244335-r31852592-Motel_6_Houston-Baytown_Texas.html</t>
@@ -1164,14 +1441,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1187,7 +1460,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1196,22 +1469,22 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
@@ -1225,14 +1498,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1248,7 +1517,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1257,25 +1526,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1286,10 +1555,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1305,7 +1578,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1314,25 +1587,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1343,10 +1616,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1362,7 +1639,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1371,45 +1648,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
       <c r="O6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1425,7 +1696,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1434,32 +1705,38 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
         <v>88</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1482,7 +1759,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1491,25 +1768,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>98</v>
-      </c>
-      <c r="O8" t="s">
-        <v>99</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1520,14 +1797,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X8" t="s">
-        <v>101</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1543,7 +1816,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1552,25 +1825,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1581,14 +1854,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" t="s">
-        <v>110</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1604,7 +1873,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1613,39 +1882,45 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -1661,7 +1936,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1670,47 +1945,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1726,7 +1993,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1735,25 +2002,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1767,7 +2034,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -1783,7 +2050,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1792,43 +2059,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -1844,7 +2111,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1853,45 +2120,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -1907,7 +2172,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1916,25 +2181,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1945,10 +2210,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -1964,7 +2233,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1973,22 +2242,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
         <v>154</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>155</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>156</v>
-      </c>
-      <c r="L16" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>158</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -2005,7 +2274,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -2021,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2030,45 +2299,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
         <v>161</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>162</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
         <v>163</v>
       </c>
-      <c r="L17" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
@@ -2084,7 +2347,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2093,49 +2356,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
         <v>167</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>168</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>169</v>
       </c>
-      <c r="L18" t="s">
-        <v>170</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>171</v>
-      </c>
       <c r="O18" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -2151,7 +2408,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2160,49 +2417,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -2218,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2227,49 +2482,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -2285,7 +2530,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2294,41 +2539,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
         <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2336,7 +2575,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -2352,7 +2591,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2361,49 +2600,923 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s">
+        <v>239</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>276</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>277</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6115</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
